--- a/data/ds_xet_tuyen_web_060815.xlsx
+++ b/data/ds_xet_tuyen_web_060815.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20895" windowHeight="9300"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="DS xet tuyen" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="124">
   <si>
     <t>Ngày sinh</t>
   </si>
@@ -85,9 +85,6 @@
     <t>DND016235</t>
   </si>
   <si>
-    <t>DND002114</t>
-  </si>
-  <si>
     <t>DND005835</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Số báo danh</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Thiết kế đồ họa</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
     <t>08/06/1997</t>
   </si>
   <si>
-    <t>NGUYỄN THÀNH CÔNG</t>
-  </si>
-  <si>
-    <t>01/04/1997</t>
-  </si>
-  <si>
     <t>PHAN VĂN HẢI</t>
   </si>
   <si>
@@ -250,27 +238,18 @@
     <t>TDV029150</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>NGUYỄN VĂN TƯ</t>
   </si>
   <si>
     <t>17/12/1997</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>LƯƠNG TRẦN ANH TÁNH</t>
   </si>
   <si>
     <t>14/01/1997</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>NGUYỄN THỊ MỸ OANH</t>
   </si>
   <si>
@@ -281,12 +260,135 @@
   </si>
   <si>
     <t>14/06/1996</t>
+  </si>
+  <si>
+    <t>DND020196</t>
+  </si>
+  <si>
+    <t>BÙI THỊ SỬU</t>
+  </si>
+  <si>
+    <t>04/01/1997</t>
+  </si>
+  <si>
+    <t>DND022502</t>
+  </si>
+  <si>
+    <t>LƯƠNG VĂN THIÊN</t>
+  </si>
+  <si>
+    <t>19/07/1997</t>
+  </si>
+  <si>
+    <t>DND012844</t>
+  </si>
+  <si>
+    <t>ĐINH VŨ DIỆU LY</t>
+  </si>
+  <si>
+    <t>28/12/1997</t>
+  </si>
+  <si>
+    <t>DQN023162</t>
+  </si>
+  <si>
+    <t>PHÙNG VĂN THỨC</t>
+  </si>
+  <si>
+    <t>20/01/1997</t>
+  </si>
+  <si>
+    <t>NLS000367</t>
+  </si>
+  <si>
+    <t>TRẦN TUẤN ANH</t>
+  </si>
+  <si>
+    <t>17/05/1997</t>
+  </si>
+  <si>
+    <t>DHU004533</t>
+  </si>
+  <si>
+    <t>LÊ THỊ NGÂN GIANG</t>
+  </si>
+  <si>
+    <t>04/07/1997</t>
+  </si>
+  <si>
+    <t>DHU000173</t>
+  </si>
+  <si>
+    <t>DƯƠNG HÀ ANH</t>
+  </si>
+  <si>
+    <t>14/09/1997</t>
+  </si>
+  <si>
+    <t>TSN012750</t>
+  </si>
+  <si>
+    <t>TRẦN KIM QUANH</t>
+  </si>
+  <si>
+    <t>29/09/1997</t>
+  </si>
+  <si>
+    <t>DND007260</t>
+  </si>
+  <si>
+    <t>LÊ TRUNG HIẾU</t>
+  </si>
+  <si>
+    <t>DND003678</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH DUYÊN</t>
+  </si>
+  <si>
+    <t>28/08/1997</t>
+  </si>
+  <si>
+    <t>DHU015378</t>
+  </si>
+  <si>
+    <t>LÊ QUANG NHẬT</t>
+  </si>
+  <si>
+    <t>07/04/1997</t>
+  </si>
+  <si>
+    <t>DND020634</t>
+  </si>
+  <si>
+    <t>NGUYỄN TRỌNG TÂM</t>
+  </si>
+  <si>
+    <t>19/09/1996</t>
+  </si>
+  <si>
+    <t>TTN001657</t>
+  </si>
+  <si>
+    <t>LỤC MINH CHIẾN</t>
+  </si>
+  <si>
+    <t>18/10/1996</t>
+  </si>
+  <si>
+    <t>TTN004099</t>
+  </si>
+  <si>
+    <t>TRẦN TRUNG ĐỨC</t>
+  </si>
+  <si>
+    <t>02/10/1996</t>
   </si>
   <si>
     <t>DANH SÁCH THÍ SINH ĐĂNG KÝ XÉT TUYỂN NGUYỆN VỌNG 1
 HỆ CAO ĐẲNG CHÍNH QUY NĂM 2015
 VÀO TRƯỜNG CAO ĐẲNG CÔNG NGHỆ THÔNG TIN HỮU NGHỊ VIỆT - HÀN
-(Cập nhật đến 15h00 ngày 06/08/2015)</t>
+(Cập nhật đến 16h30 ngày 11/08/2015)</t>
   </si>
 </sst>
 </file>
@@ -693,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -715,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80.25" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -734,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
@@ -760,25 +862,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -789,25 +891,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
         <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="4">
-        <v>14.75</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -818,25 +920,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>13.75</v>
+        <v>16.75</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -847,28 +949,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
@@ -876,25 +978,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I8" s="4">
         <v>5</v>
@@ -905,25 +1007,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="I9" s="4">
         <v>6</v>
@@ -934,332 +1036,332 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>10.75</v>
+        <v>13.75</v>
       </c>
       <c r="I10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
       </c>
       <c r="H12" s="4">
         <v>13.5</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I13" s="4">
         <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>14.75</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>36</v>
+      <c r="G15" s="6">
+        <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="I15" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="I16" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>36</v>
+      <c r="G17" s="6">
+        <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>13.5</v>
+        <v>16.25</v>
       </c>
       <c r="I17" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>84</v>
+      <c r="G18" s="6">
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>14.75</v>
+        <v>13.5</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>13.25</v>
+        <v>18.75</v>
       </c>
       <c r="I19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>17</v>
+        <v>17.75</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -1267,69 +1369,69 @@
       <c r="F21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>84</v>
+      <c r="G21" s="6">
+        <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>16.75</v>
+        <v>15.5</v>
       </c>
       <c r="I21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3</v>
       </c>
       <c r="H22" s="4">
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -1337,669 +1439,1626 @@
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>84</v>
+      <c r="G24" s="6">
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="I24" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>78</v>
+      <c r="G25" s="6">
+        <v>2</v>
       </c>
       <c r="H25" s="4">
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="I25" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="I26" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>36</v>
+      <c r="G27" s="6">
+        <v>3</v>
       </c>
       <c r="H27" s="4">
-        <v>14.75</v>
+        <v>12</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="I28" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>78</v>
+      <c r="G29" s="6">
+        <v>2</v>
       </c>
       <c r="H29" s="4">
-        <v>13.5</v>
+        <v>18.75</v>
       </c>
       <c r="I29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
       </c>
       <c r="H30" s="4">
-        <v>10.75</v>
+        <v>17.75</v>
       </c>
       <c r="I30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>36</v>
+      <c r="G31" s="6">
+        <v>4</v>
       </c>
       <c r="H31" s="4">
-        <v>17.5</v>
+        <v>14.75</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
       </c>
       <c r="H32" s="4">
-        <v>17.5</v>
+        <v>14.75</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>15.5</v>
+        <v>13.25</v>
       </c>
       <c r="I33" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2</v>
       </c>
       <c r="H34" s="4">
-        <v>14.75</v>
+        <v>12</v>
       </c>
       <c r="I34" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>78</v>
+      <c r="G35" s="6">
+        <v>4</v>
       </c>
       <c r="H35" s="4">
-        <v>14.5</v>
+        <v>17.75</v>
       </c>
       <c r="I35" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2</v>
       </c>
       <c r="H36" s="4">
-        <v>14</v>
+        <v>17.25</v>
       </c>
       <c r="I36" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
       </c>
       <c r="H37" s="4">
-        <v>13.75</v>
+        <v>17</v>
       </c>
       <c r="I37" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>36</v>
+      <c r="G38" s="6">
+        <v>2</v>
       </c>
       <c r="H38" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I38" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
         <v>14</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="4">
-        <v>13.25</v>
-      </c>
       <c r="I39" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G40" s="6">
+        <v>3</v>
       </c>
       <c r="H40" s="4">
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="I40" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3</v>
       </c>
       <c r="H41" s="4">
-        <v>10.75</v>
+        <v>13.75</v>
       </c>
       <c r="I41" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>81</v>
+      <c r="G42" s="6">
+        <v>2</v>
       </c>
       <c r="H42" s="4">
-        <v>16.75</v>
+        <v>13.25</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3</v>
       </c>
       <c r="H43" s="4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I43" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G44" s="6">
+        <v>2</v>
       </c>
       <c r="H44" s="4">
-        <v>16.5</v>
+        <v>11.75</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G45" s="6">
+        <v>4</v>
       </c>
       <c r="H45" s="4">
-        <v>13.25</v>
+        <v>10.75</v>
       </c>
       <c r="I45" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>36</v>
+      <c r="G46" s="6">
+        <v>1</v>
       </c>
       <c r="H46" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="6">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4">
+        <v>13</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="I50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>17.25</v>
+      </c>
+      <c r="I53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="I56" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="I58" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>14</v>
+      </c>
+      <c r="I59" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="6">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="I60" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="I61" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="I62" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="6">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I63" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4">
+        <v>13</v>
+      </c>
+      <c r="I64" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I65" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="I66" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="6">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="6">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4">
         <v>12</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I69" s="4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="6">
+        <v>4</v>
+      </c>
+      <c r="H70" s="4">
+        <v>12</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="6">
+        <v>4</v>
+      </c>
+      <c r="H71" s="4">
+        <v>18.75</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>18</v>
+      </c>
+      <c r="I72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="6">
+        <v>3</v>
+      </c>
+      <c r="H73" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="I73" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="6">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="I74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I75" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>13</v>
+      </c>
+      <c r="I76" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I77" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>12</v>
+      </c>
+      <c r="I78" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="I79" s="4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/ds_xet_tuyen_web_060815.xlsx
+++ b/data/ds_xet_tuyen_web_060815.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="9300"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20895" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="DS xet tuyen" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="133">
   <si>
     <t>Ngày sinh</t>
   </si>
@@ -94,9 +94,6 @@
     <t>DND001434</t>
   </si>
   <si>
-    <t>DND017816</t>
-  </si>
-  <si>
     <t>NLS007099</t>
   </si>
   <si>
@@ -184,12 +181,6 @@
     <t>25/09/1997</t>
   </si>
   <si>
-    <t>NGUYÊN XUÂN PHƯỚC</t>
-  </si>
-  <si>
-    <t>22/03/1996</t>
-  </si>
-  <si>
     <t>PHẠM VĂN QUỐC</t>
   </si>
   <si>
@@ -347,15 +338,6 @@
   </si>
   <si>
     <t>28/08/1997</t>
-  </si>
-  <si>
-    <t>DHU015378</t>
-  </si>
-  <si>
-    <t>LÊ QUANG NHẬT</t>
-  </si>
-  <si>
-    <t>07/04/1997</t>
   </si>
   <si>
     <t>DND020634</t>
@@ -388,7 +370,52 @@
     <t>DANH SÁCH THÍ SINH ĐĂNG KÝ XÉT TUYỂN NGUYỆN VỌNG 1
 HỆ CAO ĐẲNG CHÍNH QUY NĂM 2015
 VÀO TRƯỜNG CAO ĐẲNG CÔNG NGHỆ THÔNG TIN HỮU NGHỊ VIỆT - HÀN
-(Cập nhật đến 16h30 ngày 11/08/2015)</t>
+(Cập nhật đến 11h30 ngày 17/08/2015)</t>
+  </si>
+  <si>
+    <t>DND017961</t>
+  </si>
+  <si>
+    <t>HỨA VIỆT PHƯƠNG</t>
+  </si>
+  <si>
+    <t>11/10/1997</t>
+  </si>
+  <si>
+    <t>DND011570</t>
+  </si>
+  <si>
+    <t>LÊ THỊ HOÀNG LINH</t>
+  </si>
+  <si>
+    <t>02/04/1997</t>
+  </si>
+  <si>
+    <t>DND017290</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ THANH PHONG</t>
+  </si>
+  <si>
+    <t>26/06/1997</t>
+  </si>
+  <si>
+    <t>TTN001965</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN CỪ</t>
+  </si>
+  <si>
+    <t>27/06/1997</t>
+  </si>
+  <si>
+    <t>NLS001005</t>
+  </si>
+  <si>
+    <t>LÊ HOÀNG CHINH</t>
+  </si>
+  <si>
+    <t>15/07/1997</t>
   </si>
 </sst>
 </file>
@@ -795,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -817,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80.25" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -836,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
@@ -862,19 +889,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6">
         <v>3</v>
@@ -891,19 +918,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -920,19 +947,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -949,25 +976,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>14.75</v>
+        <v>14.5</v>
       </c>
       <c r="I7" s="4">
         <v>4</v>
@@ -978,25 +1005,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>14.5</v>
+        <v>13.75</v>
       </c>
       <c r="I8" s="4">
         <v>5</v>
@@ -1007,28 +1034,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I9" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
@@ -1036,28 +1063,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="I10" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
@@ -1065,28 +1092,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="4">
         <v>13.75</v>
       </c>
       <c r="I11" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
@@ -1094,28 +1121,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="I12" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
@@ -1123,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
@@ -1152,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6">
         <v>4</v>
@@ -1181,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
@@ -1210,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1239,25 +1266,25 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>16.25</v>
+        <v>15.5</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1268,25 +1295,25 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>13.5</v>
+        <v>16.25</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
@@ -1294,60 +1321,60 @@
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
-        <v>18.75</v>
+        <v>14.25</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="4">
-        <v>17.75</v>
+        <v>13.5</v>
       </c>
       <c r="I20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1">
@@ -1355,16 +1382,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -1373,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>15.5</v>
+        <v>18.75</v>
       </c>
       <c r="I21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
@@ -1384,28 +1411,28 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="I22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1">
@@ -1413,28 +1440,28 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="I23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
@@ -1442,28 +1469,28 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="4">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="I24" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
@@ -1471,28 +1498,28 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="4">
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="I25" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1">
@@ -1500,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4">
-        <v>13.5</v>
+        <v>14.75</v>
       </c>
       <c r="I26" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1">
@@ -1529,28 +1556,28 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I27" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
@@ -1558,144 +1585,144 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I28" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>18.75</v>
+        <v>14</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="6">
         <v>2</v>
       </c>
       <c r="H30" s="4">
-        <v>17.75</v>
+        <v>13.75</v>
       </c>
       <c r="I30" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>14.75</v>
+        <v>12</v>
       </c>
       <c r="I31" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6">
         <v>3</v>
       </c>
       <c r="H32" s="4">
-        <v>14.75</v>
+        <v>12</v>
       </c>
       <c r="I32" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1">
@@ -1703,28 +1730,28 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
-        <v>13.25</v>
+        <v>18.75</v>
       </c>
       <c r="I33" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1">
@@ -1732,36 +1759,36 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="6">
         <v>2</v>
       </c>
       <c r="H34" s="4">
-        <v>12</v>
+        <v>17.75</v>
       </c>
       <c r="I34" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>103</v>
@@ -1770,164 +1797,164 @@
         <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" s="6">
         <v>4</v>
       </c>
       <c r="H35" s="4">
-        <v>17.75</v>
+        <v>14.75</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>17.25</v>
+        <v>14.25</v>
       </c>
       <c r="I36" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="4">
-        <v>17</v>
+        <v>14.75</v>
       </c>
       <c r="I37" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" s="6">
         <v>2</v>
       </c>
       <c r="H38" s="4">
-        <v>14.75</v>
+        <v>14</v>
       </c>
       <c r="I38" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="I39" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="I40" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1">
@@ -1935,28 +1962,28 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="4">
-        <v>13.75</v>
+        <v>17.75</v>
       </c>
       <c r="I41" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1">
@@ -1964,28 +1991,28 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>17</v>
+      </c>
+      <c r="I42" s="4">
         <v>2</v>
-      </c>
-      <c r="H42" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="I42" s="4">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1">
@@ -1993,28 +2020,28 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="I43" s="4">
         <v>3</v>
-      </c>
-      <c r="H43" s="4">
-        <v>12</v>
-      </c>
-      <c r="I43" s="4">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.5" customHeight="1">
@@ -2022,28 +2049,28 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="4">
-        <v>11.75</v>
+        <v>13.75</v>
       </c>
       <c r="I44" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1">
@@ -2051,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>62</v>
@@ -2063,178 +2090,178 @@
         <v>63</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="I45" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="4">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="I46" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="4">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="I47" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6">
         <v>2</v>
       </c>
       <c r="H48" s="4">
-        <v>13.5</v>
+        <v>13.25</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="4">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="I49" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="4">
         <v>10.75</v>
       </c>
       <c r="I50" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>31</v>
@@ -2243,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="4">
-        <v>17.5</v>
+        <v>14.75</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
@@ -2251,57 +2278,57 @@
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="4">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="I52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4">
-        <v>17.25</v>
+        <v>13.75</v>
       </c>
       <c r="I53" s="4">
         <v>3</v>
@@ -2309,28 +2336,28 @@
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G54" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="4">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="I54" s="4">
         <v>4</v>
@@ -2338,31 +2365,31 @@
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" s="6">
         <v>2</v>
       </c>
       <c r="H55" s="4">
-        <v>15.5</v>
+        <v>10.75</v>
       </c>
       <c r="I55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1">
@@ -2370,28 +2397,28 @@
         <v>14</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" s="6">
         <v>1</v>
       </c>
       <c r="H56" s="4">
-        <v>14.75</v>
+        <v>20.5</v>
       </c>
       <c r="I56" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1">
@@ -2399,28 +2426,28 @@
         <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="6">
         <v>1</v>
       </c>
       <c r="H57" s="4">
-        <v>14.75</v>
+        <v>17.5</v>
       </c>
       <c r="I57" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1">
@@ -2428,28 +2455,28 @@
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" s="6">
         <v>2</v>
       </c>
       <c r="H58" s="4">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I58" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1">
@@ -2457,28 +2484,28 @@
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" s="6">
         <v>1</v>
       </c>
       <c r="H59" s="4">
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I59" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="19.5" customHeight="1">
@@ -2486,19 +2513,19 @@
         <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6">
         <v>2</v>
@@ -2507,7 +2534,7 @@
         <v>13.75</v>
       </c>
       <c r="I60" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1">
@@ -2515,28 +2542,28 @@
         <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G61" s="6">
         <v>1</v>
       </c>
       <c r="H61" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I61" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="19.5" customHeight="1">
@@ -2544,28 +2571,28 @@
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="I62" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19.5" customHeight="1">
@@ -2573,28 +2600,28 @@
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="I63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19.5" customHeight="1">
@@ -2602,28 +2629,28 @@
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" s="6">
         <v>2</v>
       </c>
       <c r="H64" s="4">
-        <v>13</v>
+        <v>13.25</v>
       </c>
       <c r="I64" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="19.5" customHeight="1">
@@ -2631,28 +2658,28 @@
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" s="6">
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="I65" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1">
@@ -2660,248 +2687,248 @@
         <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G66" s="6">
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <v>10.75</v>
+        <v>13.75</v>
       </c>
       <c r="I66" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4">
         <v>15.5</v>
       </c>
       <c r="I67" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="19.5" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
         <v>12.5</v>
       </c>
       <c r="I68" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G69" s="6">
         <v>2</v>
       </c>
       <c r="H69" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1">
       <c r="A70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I70" s="4">
         <v>15</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="6">
-        <v>4</v>
-      </c>
-      <c r="H70" s="4">
-        <v>12</v>
-      </c>
-      <c r="I70" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1">
       <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="I71" s="4">
         <v>16</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="6">
-        <v>4</v>
-      </c>
-      <c r="H71" s="4">
-        <v>18.75</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I72" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="19.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" s="4">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="I73" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="19.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>32</v>
@@ -2910,39 +2937,39 @@
         <v>2</v>
       </c>
       <c r="H74" s="4">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="I74" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="19.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="4">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="I75" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="19.5" customHeight="1">
@@ -2950,28 +2977,28 @@
         <v>16</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" s="4">
-        <v>13</v>
+        <v>18.75</v>
       </c>
       <c r="I76" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19.5" customHeight="1">
@@ -2979,28 +3006,28 @@
         <v>16</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" s="4">
-        <v>12.25</v>
+        <v>17.75</v>
       </c>
       <c r="I77" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="19.5" customHeight="1">
@@ -3008,28 +3035,28 @@
         <v>16</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G78" s="6">
         <v>1</v>
       </c>
       <c r="H78" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="19.5" customHeight="1">
@@ -3037,31 +3064,180 @@
         <v>16</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="I79" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I81" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>13</v>
+      </c>
+      <c r="I82" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
         <v>11.75</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I83" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>12</v>
+      </c>
+      <c r="I84" s="4">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:I84">
+    <sortCondition ref="A4:A84"/>
+    <sortCondition ref="I4:I84"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>

--- a/data/ds_xet_tuyen_web_060815.xlsx
+++ b/data/ds_xet_tuyen_web_060815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="152">
   <si>
     <t>Ngày sinh</t>
   </si>
@@ -365,57 +365,114 @@
   </si>
   <si>
     <t>02/10/1996</t>
+  </si>
+  <si>
+    <t>DND017961</t>
+  </si>
+  <si>
+    <t>HỨA VIỆT PHƯƠNG</t>
+  </si>
+  <si>
+    <t>11/10/1997</t>
+  </si>
+  <si>
+    <t>DND011570</t>
+  </si>
+  <si>
+    <t>LÊ THỊ HOÀNG LINH</t>
+  </si>
+  <si>
+    <t>02/04/1997</t>
+  </si>
+  <si>
+    <t>DND017290</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ THANH PHONG</t>
+  </si>
+  <si>
+    <t>26/06/1997</t>
+  </si>
+  <si>
+    <t>TTN001965</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN CỪ</t>
+  </si>
+  <si>
+    <t>27/06/1997</t>
   </si>
   <si>
     <t>DANH SÁCH THÍ SINH ĐĂNG KÝ XÉT TUYỂN NGUYỆN VỌNG 1
 HỆ CAO ĐẲNG CHÍNH QUY NĂM 2015
 VÀO TRƯỜNG CAO ĐẲNG CÔNG NGHỆ THÔNG TIN HỮU NGHỊ VIỆT - HÀN
-(Cập nhật đến 11h30 ngày 17/08/2015)</t>
-  </si>
-  <si>
-    <t>DND017961</t>
-  </si>
-  <si>
-    <t>HỨA VIỆT PHƯƠNG</t>
-  </si>
-  <si>
-    <t>11/10/1997</t>
-  </si>
-  <si>
-    <t>DND011570</t>
-  </si>
-  <si>
-    <t>LÊ THỊ HOÀNG LINH</t>
-  </si>
-  <si>
-    <t>02/04/1997</t>
-  </si>
-  <si>
-    <t>DND017290</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ THANH PHONG</t>
-  </si>
-  <si>
-    <t>26/06/1997</t>
-  </si>
-  <si>
-    <t>TTN001965</t>
-  </si>
-  <si>
-    <t>NGUYỄN VĂN CỪ</t>
-  </si>
-  <si>
-    <t>27/06/1997</t>
-  </si>
-  <si>
-    <t>NLS001005</t>
-  </si>
-  <si>
-    <t>LÊ HOÀNG CHINH</t>
-  </si>
-  <si>
-    <t>15/07/1997</t>
+(Cập nhật đến 11h00 ngày 18/08/2015)</t>
+  </si>
+  <si>
+    <t>DND007346</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MINH HIẾU</t>
+  </si>
+  <si>
+    <t>28/06/1997</t>
+  </si>
+  <si>
+    <t>DHU026040</t>
+  </si>
+  <si>
+    <t>NGUYỄN THANH TÙNG</t>
+  </si>
+  <si>
+    <t>DCN000016</t>
+  </si>
+  <si>
+    <t>ĐỒNG THÁI AN</t>
+  </si>
+  <si>
+    <t>08/12/1997</t>
+  </si>
+  <si>
+    <t>DND028999</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ VI</t>
+  </si>
+  <si>
+    <t>DQN013443</t>
+  </si>
+  <si>
+    <t>LƯƠNG THỊ NAM</t>
+  </si>
+  <si>
+    <t>18/07/1997</t>
+  </si>
+  <si>
+    <t>TDV033020</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ HUYỀN TRANG</t>
+  </si>
+  <si>
+    <t>19/09/1997</t>
+  </si>
+  <si>
+    <t>NLS008378</t>
+  </si>
+  <si>
+    <t>ĐẶNG QUANG NHÂN</t>
+  </si>
+  <si>
+    <t>12/05/1997</t>
+  </si>
+  <si>
+    <t>TDV005695</t>
+  </si>
+  <si>
+    <t>VÕ TÙNG DƯƠNG</t>
+  </si>
+  <si>
+    <t>05/03/1997</t>
   </si>
 </sst>
 </file>
@@ -822,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -844,7 +901,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80.25" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -921,19 +978,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>18</v>
@@ -950,25 +1007,25 @@
         <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>16.75</v>
+        <v>18</v>
       </c>
       <c r="I6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
@@ -979,22 +1036,22 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>14.5</v>
+        <v>16.75</v>
       </c>
       <c r="I7" s="4">
         <v>4</v>
@@ -1008,13 +1065,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>31</v>
@@ -1023,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="I8" s="4">
         <v>5</v>
@@ -1037,13 +1094,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>30</v>
@@ -1052,10 +1109,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="I9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
@@ -1066,25 +1123,25 @@
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="I10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
@@ -1095,25 +1152,25 @@
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I11" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
@@ -1124,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="4">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="I12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
@@ -1153,22 +1210,22 @@
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="I13" s="4">
         <v>10</v>
@@ -1182,13 +1239,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>30</v>
@@ -1197,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>13</v>
+        <v>13.75</v>
       </c>
       <c r="I14" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1">
@@ -1211,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>32</v>
@@ -1226,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I15" s="4">
         <v>12</v>
@@ -1240,22 +1297,22 @@
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="I16" s="4">
         <v>13</v>
@@ -1263,48 +1320,48 @@
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
@@ -1313,39 +1370,39 @@
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>16.25</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4">
-        <v>14.25</v>
+        <v>10.75</v>
       </c>
       <c r="I19" s="4">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
@@ -1356,42 +1413,42 @@
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="4">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="I20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -1400,27 +1457,27 @@
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>18.75</v>
+        <v>15.5</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>32</v>
@@ -1429,53 +1486,53 @@
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>17.75</v>
+        <v>16.25</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
-        <v>15.5</v>
+        <v>14.25</v>
       </c>
       <c r="I23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>74</v>
@@ -1484,13 +1541,13 @@
         <v>31</v>
       </c>
       <c r="G24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4">
-        <v>14.75</v>
+        <v>13.5</v>
       </c>
       <c r="I24" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
@@ -1501,25 +1558,25 @@
         <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>14.25</v>
+        <v>18.75</v>
       </c>
       <c r="I25" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1">
@@ -1530,25 +1587,25 @@
         <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="I26" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1">
@@ -1559,25 +1616,25 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>14.5</v>
+        <v>16.25</v>
       </c>
       <c r="I27" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
@@ -1588,13 +1645,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>31</v>
@@ -1603,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="I28" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1">
@@ -1617,25 +1674,25 @@
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="4">
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I29" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1">
@@ -1646,25 +1703,25 @@
         <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="I30" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1">
@@ -1675,25 +1732,25 @@
         <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="4">
-        <v>12</v>
+        <v>14.75</v>
       </c>
       <c r="I31" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1">
@@ -1704,129 +1761,129 @@
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I32" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>18.75</v>
+        <v>13.5</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>17.75</v>
+        <v>14</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="I35" s="4">
         <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>32</v>
@@ -1835,39 +1892,39 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>14.25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G37" s="6">
         <v>3</v>
       </c>
       <c r="H37" s="4">
-        <v>14.75</v>
+        <v>12</v>
       </c>
       <c r="I37" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
@@ -1878,25 +1935,25 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" s="6">
         <v>2</v>
       </c>
       <c r="H38" s="4">
-        <v>14</v>
+        <v>18.75</v>
       </c>
       <c r="I38" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1">
@@ -1907,25 +1964,25 @@
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
-        <v>13.25</v>
+        <v>17.75</v>
       </c>
       <c r="I39" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1">
@@ -1936,199 +1993,199 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" s="4">
-        <v>12</v>
+        <v>14.75</v>
       </c>
       <c r="I40" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="I41" s="4">
         <v>4</v>
-      </c>
-      <c r="H41" s="4">
-        <v>17.75</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="4">
-        <v>17</v>
+        <v>14.75</v>
       </c>
       <c r="I42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" s="6">
         <v>2</v>
       </c>
       <c r="H43" s="4">
-        <v>14.75</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4">
-        <v>13.75</v>
+        <v>13.25</v>
       </c>
       <c r="I44" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" s="6">
         <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I45" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
         <v>12</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="6">
-        <v>3</v>
-      </c>
-      <c r="H46" s="4">
-        <v>13.75</v>
-      </c>
       <c r="I46" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1">
@@ -2139,25 +2196,25 @@
         <v>38</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="4">
-        <v>12</v>
+        <v>17.75</v>
       </c>
       <c r="I47" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1">
@@ -2168,25 +2225,25 @@
         <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>17</v>
+      </c>
+      <c r="I48" s="4">
         <v>2</v>
-      </c>
-      <c r="H48" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="I48" s="4">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1">
@@ -2197,25 +2254,25 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" s="6">
         <v>2</v>
       </c>
       <c r="H49" s="4">
-        <v>11.75</v>
+        <v>14.75</v>
       </c>
       <c r="I49" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1">
@@ -2226,71 +2283,71 @@
         <v>38</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15</v>
+      </c>
+      <c r="I50" s="4">
         <v>4</v>
-      </c>
-      <c r="H50" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="I50" s="4">
-        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" s="4">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="I51" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>31</v>
@@ -2299,18 +2356,18 @@
         <v>2</v>
       </c>
       <c r="H52" s="4">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I52" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>67</v>
@@ -2325,175 +2382,175 @@
         <v>30</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="4">
         <v>13.75</v>
       </c>
       <c r="I53" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G54" s="6">
         <v>3</v>
       </c>
       <c r="H54" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="6">
         <v>2</v>
       </c>
       <c r="H55" s="4">
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="I55" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4">
-        <v>20.5</v>
+        <v>11.75</v>
       </c>
       <c r="I56" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" s="4">
-        <v>17.5</v>
+        <v>10.75</v>
       </c>
       <c r="I57" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" s="6">
         <v>2</v>
       </c>
       <c r="H58" s="4">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I58" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>31</v>
@@ -2505,24 +2562,24 @@
         <v>14.75</v>
       </c>
       <c r="I59" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="19.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>31</v>
@@ -2531,97 +2588,97 @@
         <v>2</v>
       </c>
       <c r="H60" s="4">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="I60" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="4">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="I61" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="19.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="4">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="I62" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="I63" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19.5" customHeight="1">
@@ -2632,25 +2689,25 @@
         <v>40</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4">
-        <v>13.25</v>
+        <v>20.5</v>
       </c>
       <c r="I64" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="19.5" customHeight="1">
@@ -2661,25 +2718,25 @@
         <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" s="6">
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <v>13.75</v>
+        <v>17</v>
       </c>
       <c r="I65" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1">
@@ -2690,13 +2747,13 @@
         <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>30</v>
@@ -2705,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <v>13.75</v>
+        <v>17.5</v>
       </c>
       <c r="I66" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1">
@@ -2719,16 +2776,16 @@
         <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" s="6">
         <v>2</v>
@@ -2737,7 +2794,7 @@
         <v>15.5</v>
       </c>
       <c r="I67" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="19.5" customHeight="1">
@@ -2748,25 +2805,25 @@
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" s="6">
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <v>12.5</v>
+        <v>14.75</v>
       </c>
       <c r="I68" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1">
@@ -2777,25 +2834,25 @@
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="E69" s="2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4">
-        <v>13</v>
+        <v>13.75</v>
       </c>
       <c r="I69" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1">
@@ -2806,25 +2863,25 @@
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="4">
-        <v>12.25</v>
+        <v>13.75</v>
       </c>
       <c r="I70" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1">
@@ -2835,100 +2892,100 @@
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" s="6">
         <v>1</v>
       </c>
       <c r="H71" s="4">
-        <v>10.75</v>
+        <v>14.75</v>
       </c>
       <c r="I71" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I72" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="19.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" s="6">
         <v>1</v>
       </c>
       <c r="H73" s="4">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="I73" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="19.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>32</v>
@@ -2937,172 +2994,172 @@
         <v>2</v>
       </c>
       <c r="H74" s="4">
-        <v>12.5</v>
+        <v>13.25</v>
       </c>
       <c r="I74" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="19.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4">
-        <v>12</v>
+        <v>13.75</v>
       </c>
       <c r="I75" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="19.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4">
-        <v>18.75</v>
+        <v>13.75</v>
       </c>
       <c r="I76" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="I77" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="19.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" s="6">
         <v>1</v>
       </c>
       <c r="H78" s="4">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="I78" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="19.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" s="6">
         <v>2</v>
       </c>
       <c r="H79" s="4">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="I79" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="19.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>32</v>
@@ -3111,56 +3168,56 @@
         <v>1</v>
       </c>
       <c r="H80" s="4">
-        <v>13.25</v>
+        <v>10.75</v>
       </c>
       <c r="I80" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="19.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" s="4">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="I81" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>30</v>
@@ -3169,68 +3226,387 @@
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="I82" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="19.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="I83" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="19.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="4">
         <v>12</v>
       </c>
       <c r="I84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="6">
+        <v>4</v>
+      </c>
+      <c r="H85" s="4">
+        <v>18.75</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="6">
+        <v>3</v>
+      </c>
+      <c r="H86" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>18</v>
+      </c>
+      <c r="I87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="6">
+        <v>2</v>
+      </c>
+      <c r="H88" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4">
+        <v>15</v>
+      </c>
+      <c r="I89" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I90" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I91" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I92" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>13</v>
+      </c>
+      <c r="I93" s="4">
         <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="I94" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>12</v>
+      </c>
+      <c r="I95" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/ds_xet_tuyen_web_060815.xlsx
+++ b/data/ds_xet_tuyen_web_060815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="159">
   <si>
     <t>Ngày sinh</t>
   </si>
@@ -376,15 +376,6 @@
     <t>11/10/1997</t>
   </si>
   <si>
-    <t>DND011570</t>
-  </si>
-  <si>
-    <t>LÊ THỊ HOÀNG LINH</t>
-  </si>
-  <si>
-    <t>02/04/1997</t>
-  </si>
-  <si>
     <t>DND017290</t>
   </si>
   <si>
@@ -401,78 +392,108 @@
   </si>
   <si>
     <t>27/06/1997</t>
+  </si>
+  <si>
+    <t>DND007346</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MINH HIẾU</t>
+  </si>
+  <si>
+    <t>28/06/1997</t>
+  </si>
+  <si>
+    <t>DHU026040</t>
+  </si>
+  <si>
+    <t>NGUYỄN THANH TÙNG</t>
+  </si>
+  <si>
+    <t>DCN000016</t>
+  </si>
+  <si>
+    <t>ĐỒNG THÁI AN</t>
+  </si>
+  <si>
+    <t>08/12/1997</t>
+  </si>
+  <si>
+    <t>DND028999</t>
+  </si>
+  <si>
+    <t>ĐOÀN THỊ VI</t>
+  </si>
+  <si>
+    <t>DQN013443</t>
+  </si>
+  <si>
+    <t>LƯƠNG THỊ NAM</t>
+  </si>
+  <si>
+    <t>18/07/1997</t>
+  </si>
+  <si>
+    <t>TDV033020</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ HUYỀN TRANG</t>
+  </si>
+  <si>
+    <t>19/09/1997</t>
+  </si>
+  <si>
+    <t>NLS008378</t>
+  </si>
+  <si>
+    <t>ĐẶNG QUANG NHÂN</t>
+  </si>
+  <si>
+    <t>12/05/1997</t>
+  </si>
+  <si>
+    <t>TDV005695</t>
+  </si>
+  <si>
+    <t>VÕ TÙNG DƯƠNG</t>
+  </si>
+  <si>
+    <t>05/03/1997</t>
+  </si>
+  <si>
+    <t>12/04/1994</t>
+  </si>
+  <si>
+    <t>DND011861</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ THUỲ LINH</t>
+  </si>
+  <si>
+    <t>28/04/1997</t>
+  </si>
+  <si>
+    <t>DND018337</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ HỒNG PHƯỢNG</t>
+  </si>
+  <si>
+    <t>29/10/1997</t>
+  </si>
+  <si>
+    <t>NLS001005</t>
+  </si>
+  <si>
+    <t>LÊ HOÀNG CHINH</t>
+  </si>
+  <si>
+    <t>15/07/1997</t>
   </si>
   <si>
     <t>DANH SÁCH THÍ SINH ĐĂNG KÝ XÉT TUYỂN NGUYỆN VỌNG 1
 HỆ CAO ĐẲNG CHÍNH QUY NĂM 2015
 VÀO TRƯỜNG CAO ĐẲNG CÔNG NGHỆ THÔNG TIN HỮU NGHỊ VIỆT - HÀN
-(Cập nhật đến 11h00 ngày 18/08/2015)</t>
-  </si>
-  <si>
-    <t>DND007346</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ MINH HIẾU</t>
-  </si>
-  <si>
-    <t>28/06/1997</t>
-  </si>
-  <si>
-    <t>DHU026040</t>
-  </si>
-  <si>
-    <t>NGUYỄN THANH TÙNG</t>
-  </si>
-  <si>
-    <t>DCN000016</t>
-  </si>
-  <si>
-    <t>ĐỒNG THÁI AN</t>
-  </si>
-  <si>
-    <t>08/12/1997</t>
-  </si>
-  <si>
-    <t>DND028999</t>
-  </si>
-  <si>
-    <t>ĐOÀN THỊ VI</t>
-  </si>
-  <si>
-    <t>DQN013443</t>
-  </si>
-  <si>
-    <t>LƯƠNG THỊ NAM</t>
-  </si>
-  <si>
-    <t>18/07/1997</t>
-  </si>
-  <si>
-    <t>TDV033020</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ HUYỀN TRANG</t>
-  </si>
-  <si>
-    <t>19/09/1997</t>
-  </si>
-  <si>
-    <t>NLS008378</t>
-  </si>
-  <si>
-    <t>ĐẶNG QUANG NHÂN</t>
-  </si>
-  <si>
-    <t>12/05/1997</t>
-  </si>
-  <si>
-    <t>TDV005695</t>
-  </si>
-  <si>
-    <t>VÕ TÙNG DƯƠNG</t>
-  </si>
-  <si>
-    <t>05/03/1997</t>
+(Cập nhật đến 14h00 ngày 19/08/2015)</t>
   </si>
 </sst>
 </file>
@@ -879,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -901,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="80.25" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -978,13 +999,13 @@
         <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -1094,13 +1115,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <v>#N/A</v>
+        <v>130</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>30</v>
@@ -1268,13 +1289,13 @@
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>32</v>
@@ -1413,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
@@ -1500,22 +1521,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>14.25</v>
+        <v>13.5</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -1523,31 +1544,31 @@
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>13.5</v>
+        <v>18.75</v>
       </c>
       <c r="I24" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
@@ -1558,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>32</v>
@@ -1573,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>18.75</v>
+        <v>17.75</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -1587,25 +1608,25 @@
         <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>17.75</v>
+        <v>16.5</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1">
@@ -1616,13 +1637,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>30</v>
@@ -1631,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>16.25</v>
+        <v>15.25</v>
       </c>
       <c r="I27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
@@ -1645,25 +1666,25 @@
         <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>15.5</v>
+        <v>16.25</v>
       </c>
       <c r="I28" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1">
@@ -1674,25 +1695,25 @@
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="I29" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1">
@@ -1703,25 +1724,25 @@
         <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="6">
         <v>3</v>
       </c>
       <c r="H30" s="4">
-        <v>14.25</v>
+        <v>14.75</v>
       </c>
       <c r="I30" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1">
@@ -1750,7 +1771,7 @@
         <v>14.75</v>
       </c>
       <c r="I31" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1">
@@ -1779,7 +1800,7 @@
         <v>14.5</v>
       </c>
       <c r="I32" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1">
@@ -1808,7 +1829,7 @@
         <v>13.5</v>
       </c>
       <c r="I33" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1">
@@ -1819,13 +1840,13 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>30</v>
@@ -1837,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1">
@@ -1866,7 +1887,7 @@
         <v>13.75</v>
       </c>
       <c r="I35" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1">
@@ -1895,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="I36" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
@@ -1924,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="I37" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
@@ -2022,22 +2043,22 @@
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="4">
-        <v>14.25</v>
+        <v>14.75</v>
       </c>
       <c r="I41" s="4">
         <v>4</v>
@@ -2051,25 +2072,25 @@
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G42" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
-        <v>14.75</v>
+        <v>14</v>
       </c>
       <c r="I42" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1">
@@ -2080,22 +2101,22 @@
         <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="I43" s="4">
         <v>6</v>
@@ -2109,22 +2130,22 @@
         <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
-        <v>13.25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="4">
         <v>7</v>
@@ -2138,19 +2159,19 @@
         <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4">
         <v>12</v>
@@ -2161,31 +2182,31 @@
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="4">
-        <v>12</v>
+        <v>17.75</v>
       </c>
       <c r="I46" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1">
@@ -2196,25 +2217,25 @@
         <v>38</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G47" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4">
-        <v>17.75</v>
+        <v>17</v>
       </c>
       <c r="I47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1">
@@ -2225,25 +2246,25 @@
         <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4">
-        <v>17</v>
+        <v>14.75</v>
       </c>
       <c r="I48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1">
@@ -2254,25 +2275,25 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" s="6">
         <v>2</v>
       </c>
       <c r="H49" s="4">
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="I49" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1">
@@ -2283,25 +2304,25 @@
         <v>38</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="4">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="I50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1">
@@ -2312,25 +2333,25 @@
         <v>38</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="4">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="I51" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1">
@@ -2341,25 +2362,25 @@
         <v>38</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" s="4">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="I52" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1">
@@ -2370,25 +2391,25 @@
         <v>38</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" s="6">
         <v>3</v>
       </c>
       <c r="H53" s="4">
-        <v>13.75</v>
+        <v>12</v>
       </c>
       <c r="I53" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1">
@@ -2399,25 +2420,25 @@
         <v>38</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4">
-        <v>12</v>
+        <v>13.25</v>
       </c>
       <c r="I54" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1">
@@ -2428,25 +2449,25 @@
         <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" s="6">
         <v>2</v>
       </c>
       <c r="H55" s="4">
-        <v>13.25</v>
+        <v>11.75</v>
       </c>
       <c r="I55" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1">
@@ -2457,54 +2478,54 @@
         <v>38</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" s="4">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="I56" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4">
-        <v>10.75</v>
+        <v>16.5</v>
       </c>
       <c r="I57" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1">
@@ -2515,10 +2536,10 @@
         <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>44</v>
@@ -2562,7 +2583,7 @@
         <v>14.75</v>
       </c>
       <c r="I59" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="19.5" customHeight="1">
@@ -2591,7 +2612,7 @@
         <v>13.5</v>
       </c>
       <c r="I60" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1">
@@ -2620,7 +2641,7 @@
         <v>13.75</v>
       </c>
       <c r="I61" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="19.5" customHeight="1">
@@ -2649,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="I62" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19.5" customHeight="1">
@@ -2678,7 +2699,7 @@
         <v>10.75</v>
       </c>
       <c r="I63" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19.5" customHeight="1">
@@ -2689,13 +2710,13 @@
         <v>40</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>30</v>
@@ -2718,22 +2739,22 @@
         <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="4">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I65" s="4">
         <v>2</v>
@@ -2747,13 +2768,13 @@
         <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>30</v>
@@ -2762,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="I66" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1">
@@ -2776,22 +2797,22 @@
         <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="I67" s="4">
         <v>4</v>
@@ -2805,22 +2826,22 @@
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="4">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="I68" s="4">
         <v>5</v>
@@ -2834,22 +2855,22 @@
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="2" t="e">
-        <v>#N/A</v>
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" s="6">
         <v>1</v>
       </c>
       <c r="H69" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I69" s="4">
         <v>6</v>
@@ -2863,25 +2884,25 @@
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4">
         <v>13.75</v>
       </c>
       <c r="I70" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1">
@@ -2892,25 +2913,25 @@
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="4">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="I71" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1">
@@ -2921,25 +2942,25 @@
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="I72" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="19.5" customHeight="1">
@@ -2950,22 +2971,22 @@
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I73" s="4">
         <v>10</v>
@@ -2979,22 +3000,22 @@
         <v>40</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="I74" s="4">
         <v>11</v>
@@ -3008,25 +3029,25 @@
         <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="4">
-        <v>13.75</v>
+        <v>13.25</v>
       </c>
       <c r="I75" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="19.5" customHeight="1">
@@ -3037,16 +3058,16 @@
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76" s="6">
         <v>1</v>
@@ -3055,7 +3076,7 @@
         <v>13.75</v>
       </c>
       <c r="I76" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19.5" customHeight="1">
@@ -3066,25 +3087,25 @@
         <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4">
-        <v>15.5</v>
+        <v>13.75</v>
       </c>
       <c r="I77" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="19.5" customHeight="1">
@@ -3095,22 +3116,22 @@
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="I78" s="4">
         <v>15</v>
@@ -3124,25 +3145,25 @@
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I79" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="19.5" customHeight="1">
@@ -3153,83 +3174,83 @@
         <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="4">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="I80" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="19.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="I81" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" s="6">
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <v>15.5</v>
+        <v>10.75</v>
       </c>
       <c r="I82" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="19.5" customHeight="1">
@@ -3240,25 +3261,25 @@
         <v>41</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G83" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83" s="4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I83" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="19.5" customHeight="1">
@@ -3269,83 +3290,83 @@
         <v>41</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="I84" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="19.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G85" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4">
-        <v>18.75</v>
+        <v>12.5</v>
       </c>
       <c r="I85" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="19.5" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G86" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4">
-        <v>17.75</v>
+        <v>12</v>
       </c>
       <c r="I86" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="19.5" customHeight="1">
@@ -3356,25 +3377,25 @@
         <v>42</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G87" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" s="4">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="I87" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="19.5" customHeight="1">
@@ -3385,25 +3406,25 @@
         <v>42</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="4">
-        <v>16.5</v>
+        <v>17.75</v>
       </c>
       <c r="I88" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="19.5" customHeight="1">
@@ -3414,25 +3435,25 @@
         <v>42</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G89" s="6">
         <v>1</v>
       </c>
       <c r="H89" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I89" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="19.5" customHeight="1">
@@ -3443,25 +3464,25 @@
         <v>42</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="4">
-        <v>13.25</v>
+        <v>16.5</v>
       </c>
       <c r="I90" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="19.5" customHeight="1">
@@ -3472,25 +3493,25 @@
         <v>42</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="4">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="I91" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="19.5" customHeight="1">
@@ -3501,25 +3522,25 @@
         <v>42</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G92" s="6">
         <v>1</v>
       </c>
       <c r="H92" s="4">
-        <v>12.25</v>
+        <v>15</v>
       </c>
       <c r="I92" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="19.5" customHeight="1">
@@ -3530,25 +3551,25 @@
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" s="6">
         <v>1</v>
       </c>
       <c r="H93" s="4">
-        <v>13</v>
+        <v>13.25</v>
       </c>
       <c r="I93" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="19.5" customHeight="1">
@@ -3559,25 +3580,25 @@
         <v>42</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G94" s="6">
         <v>1</v>
       </c>
       <c r="H94" s="4">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="I94" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="19.5" customHeight="1">
@@ -3588,25 +3609,112 @@
         <v>42</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I95" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>13</v>
+      </c>
+      <c r="I96" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="I97" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" s="6">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="F98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
         <v>12</v>
       </c>
-      <c r="I95" s="4">
-        <v>11</v>
+      <c r="I98" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/ds_xet_tuyen_web_060815.xlsx
+++ b/data/ds_xet_tuyen_web_060815.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="168">
   <si>
     <t>Ngày sinh</t>
   </si>
@@ -493,7 +493,34 @@
     <t>DANH SÁCH THÍ SINH ĐĂNG KÝ XÉT TUYỂN NGUYỆN VỌNG 1
 HỆ CAO ĐẲNG CHÍNH QUY NĂM 2015
 VÀO TRƯỜNG CAO ĐẲNG CÔNG NGHỆ THÔNG TIN HỮU NGHỊ VIỆT - HÀN
-(Cập nhật đến 14h00 ngày 19/08/2015)</t>
+(Cập nhật đến 16h00 ngày 20/08/2015)</t>
+  </si>
+  <si>
+    <t>NLS011229</t>
+  </si>
+  <si>
+    <t>TRẦN TRUNG THÀNH</t>
+  </si>
+  <si>
+    <t>04/04/1995</t>
+  </si>
+  <si>
+    <t>DHU000334</t>
+  </si>
+  <si>
+    <t>LÊ DỨC NHẬT ANH</t>
+  </si>
+  <si>
+    <t>02/11/1997</t>
+  </si>
+  <si>
+    <t>NLS009059</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN PHÁT</t>
+  </si>
+  <si>
+    <t>05/06/1997</t>
   </si>
 </sst>
 </file>
@@ -900,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1544,31 +1571,31 @@
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>18.75</v>
+        <v>14.25</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
@@ -1579,13 +1606,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>32</v>
@@ -1594,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>17.75</v>
+        <v>18.75</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -1608,25 +1635,25 @@
         <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>16.5</v>
+        <v>17.75</v>
       </c>
       <c r="I26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1">
@@ -1637,13 +1664,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>30</v>
@@ -1652,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>15.25</v>
+        <v>16.5</v>
       </c>
       <c r="I27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
@@ -1666,13 +1693,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>30</v>
@@ -1681,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>16.25</v>
+        <v>15.25</v>
       </c>
       <c r="I28" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1">
@@ -1695,25 +1722,25 @@
         <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4">
-        <v>15.5</v>
+        <v>15.25</v>
       </c>
       <c r="I29" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1">
@@ -1724,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>14.75</v>
+        <v>16.25</v>
       </c>
       <c r="I30" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1">
@@ -1753,25 +1780,25 @@
         <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="I31" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1">
@@ -1782,25 +1809,25 @@
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="4">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="I32" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1">
@@ -1811,22 +1838,22 @@
         <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" s="4">
-        <v>13.5</v>
+        <v>14.75</v>
       </c>
       <c r="I33" s="4">
         <v>9</v>
@@ -1840,25 +1867,25 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" s="6">
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I34" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1">
@@ -1869,25 +1896,25 @@
         <v>36</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="I35" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1">
@@ -1898,25 +1925,25 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
       </c>
       <c r="H36" s="4">
+        <v>14</v>
+      </c>
+      <c r="I36" s="4">
         <v>12</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
@@ -1927,83 +1954,83 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
-        <v>12</v>
+        <v>13.75</v>
       </c>
       <c r="I37" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>18.75</v>
+        <v>12</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>17.75</v>
+        <v>12</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1">
@@ -2014,25 +2041,25 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>14.75</v>
+        <v>18.75</v>
       </c>
       <c r="I40" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1">
@@ -2043,25 +2070,25 @@
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="I41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1">
@@ -2072,25 +2099,25 @@
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4">
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I42" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1">
@@ -2101,25 +2128,25 @@
         <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="4">
-        <v>13.25</v>
+        <v>14.75</v>
       </c>
       <c r="I43" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19.5" customHeight="1">
@@ -2130,25 +2157,25 @@
         <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44" s="6">
         <v>2</v>
       </c>
       <c r="H44" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I44" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1">
@@ -2159,83 +2186,83 @@
         <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
       </c>
       <c r="H45" s="4">
-        <v>12</v>
+        <v>13.25</v>
       </c>
       <c r="I45" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
-        <v>17.75</v>
+        <v>12</v>
       </c>
       <c r="I46" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
         <v>12</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>17</v>
-      </c>
       <c r="I47" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1">
@@ -2246,25 +2273,25 @@
         <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="4">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1">
@@ -2275,25 +2302,25 @@
         <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49" s="6">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="I49" s="4">
         <v>2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>15</v>
-      </c>
-      <c r="I49" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1">
@@ -2304,25 +2331,25 @@
         <v>38</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>17</v>
+      </c>
+      <c r="I50" s="4">
         <v>3</v>
-      </c>
-      <c r="H50" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="I50" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1">
@@ -2333,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>31</v>
@@ -2348,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="H51" s="4">
-        <v>14</v>
+        <v>14.75</v>
       </c>
       <c r="I51" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1">
@@ -2362,25 +2389,25 @@
         <v>38</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="4">
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="I52" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1">
@@ -2391,25 +2418,25 @@
         <v>38</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" s="6">
         <v>3</v>
       </c>
       <c r="H53" s="4">
-        <v>12</v>
+        <v>13.75</v>
       </c>
       <c r="I53" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1">
@@ -2420,25 +2447,25 @@
         <v>38</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="4">
-        <v>13.25</v>
+        <v>14.5</v>
       </c>
       <c r="I54" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1">
@@ -2449,25 +2476,25 @@
         <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" s="6">
         <v>2</v>
       </c>
       <c r="H55" s="4">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="I55" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1">
@@ -2478,141 +2505,141 @@
         <v>38</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" s="4">
-        <v>10.75</v>
+        <v>13.75</v>
       </c>
       <c r="I56" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" s="4">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="I57" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" s="6">
         <v>2</v>
       </c>
       <c r="H58" s="4">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="I58" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="4">
-        <v>14.75</v>
+        <v>11.75</v>
       </c>
       <c r="I59" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="19.5" customHeight="1">
       <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+      <c r="H60" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="I60" s="4">
         <v>13</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="6">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="I60" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1">
@@ -2623,13 +2650,13 @@
         <v>39</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>30</v>
@@ -2638,10 +2665,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="4">
-        <v>13.75</v>
+        <v>16.5</v>
       </c>
       <c r="I61" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="19.5" customHeight="1">
@@ -2652,25 +2679,25 @@
         <v>39</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G62" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I62" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19.5" customHeight="1">
@@ -2681,141 +2708,141 @@
         <v>39</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4">
-        <v>10.75</v>
+        <v>14.75</v>
       </c>
       <c r="I63" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="4">
-        <v>20.5</v>
+        <v>13.5</v>
       </c>
       <c r="I64" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="19.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4">
-        <v>16.5</v>
+        <v>13.75</v>
       </c>
       <c r="I65" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I66" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4">
-        <v>17.5</v>
+        <v>10.75</v>
       </c>
       <c r="I67" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="19.5" customHeight="1">
@@ -2826,25 +2853,25 @@
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
-        <v>15.5</v>
+        <v>20.5</v>
       </c>
       <c r="I68" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1">
@@ -2855,25 +2882,25 @@
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="4">
-        <v>14.75</v>
+        <v>16.5</v>
       </c>
       <c r="I69" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1">
@@ -2884,13 +2911,13 @@
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>30</v>
@@ -2899,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="H70" s="4">
-        <v>13.75</v>
+        <v>17</v>
       </c>
       <c r="I70" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1">
@@ -2913,25 +2940,25 @@
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4">
-        <v>13.75</v>
+        <v>17.5</v>
       </c>
       <c r="I71" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1">
@@ -2942,25 +2969,25 @@
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4">
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
       <c r="I72" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="19.5" customHeight="1">
@@ -2971,25 +2998,25 @@
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G73" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="4">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="I73" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="19.5" customHeight="1">
@@ -3000,25 +3027,25 @@
         <v>40</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" s="6">
         <v>1</v>
       </c>
       <c r="H74" s="4">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="I74" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="19.5" customHeight="1">
@@ -3029,25 +3056,25 @@
         <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" s="6">
         <v>2</v>
       </c>
       <c r="H75" s="4">
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="I75" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="19.5" customHeight="1">
@@ -3058,25 +3085,25 @@
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76" s="6">
         <v>1</v>
       </c>
       <c r="H76" s="4">
-        <v>13.75</v>
+        <v>14.75</v>
       </c>
       <c r="I76" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19.5" customHeight="1">
@@ -3087,25 +3114,25 @@
         <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="I77" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="19.5" customHeight="1">
@@ -3116,25 +3143,25 @@
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="I78" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="19.5" customHeight="1">
@@ -3145,25 +3172,25 @@
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" s="6">
         <v>1</v>
       </c>
       <c r="H79" s="4">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I79" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="19.5" customHeight="1">
@@ -3174,25 +3201,25 @@
         <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80" s="6">
         <v>2</v>
       </c>
       <c r="H80" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I80" s="4">
         <v>13</v>
-      </c>
-      <c r="I80" s="4">
-        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="19.5" customHeight="1">
@@ -3203,25 +3230,25 @@
         <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81" s="6">
         <v>1</v>
       </c>
       <c r="H81" s="4">
-        <v>12.25</v>
+        <v>13.75</v>
       </c>
       <c r="I81" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1">
@@ -3232,196 +3259,196 @@
         <v>40</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G82" s="6">
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <v>10.75</v>
+        <v>13.75</v>
       </c>
       <c r="I82" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="19.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G83" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="I83" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="19.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" s="6">
         <v>1</v>
       </c>
       <c r="H84" s="4">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="I84" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="19.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" s="6">
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I85" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="19.5" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G86" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="4">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="I86" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="19.5" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G87" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87" s="4">
-        <v>18.75</v>
+        <v>10.75</v>
       </c>
       <c r="I87" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="19.5" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G88" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="4">
-        <v>17.75</v>
+        <v>12</v>
       </c>
       <c r="I88" s="4">
         <v>1</v>
@@ -3429,19 +3456,19 @@
     </row>
     <row r="89" spans="1:9" ht="19.5" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>30</v>
@@ -3450,68 +3477,68 @@
         <v>1</v>
       </c>
       <c r="H89" s="4">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="I89" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="19.5" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90" s="6">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="I90" s="4">
         <v>3</v>
-      </c>
-      <c r="H90" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="I90" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="19.5" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" s="6">
         <v>2</v>
       </c>
       <c r="H91" s="4">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="I91" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="19.5" customHeight="1">
@@ -3522,25 +3549,25 @@
         <v>42</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G92" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" s="4">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="I92" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="19.5" customHeight="1">
@@ -3551,25 +3578,25 @@
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G93" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" s="4">
-        <v>13.25</v>
+        <v>17.75</v>
       </c>
       <c r="I93" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="19.5" customHeight="1">
@@ -3580,25 +3607,25 @@
         <v>42</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G94" s="6">
         <v>1</v>
       </c>
       <c r="H94" s="4">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="I94" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="19.5" customHeight="1">
@@ -3609,25 +3636,25 @@
         <v>42</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G95" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" s="4">
-        <v>12.25</v>
+        <v>16.5</v>
       </c>
       <c r="I95" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="19.5" customHeight="1">
@@ -3638,13 +3665,13 @@
         <v>42</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>30</v>
@@ -3653,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="H96" s="4">
-        <v>13</v>
+        <v>15.25</v>
       </c>
       <c r="I96" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="19.5" customHeight="1">
@@ -3667,25 +3694,25 @@
         <v>42</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="4">
-        <v>11.75</v>
+        <v>16.5</v>
       </c>
       <c r="I97" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="19.5" customHeight="1">
@@ -3696,25 +3723,228 @@
         <v>42</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>15</v>
+      </c>
+      <c r="I98" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" s="6">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="I99" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="I100" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I101" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="I102" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4">
+        <v>13</v>
+      </c>
+      <c r="I103" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="I104" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="F105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
         <v>12</v>
       </c>
-      <c r="I98" s="4">
-        <v>12</v>
+      <c r="I105" s="4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
